--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/premodern-rare.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/premodern-rare.xlsx
@@ -61,6 +61,34 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Reserved List
+Border: black
+Finish: normal
+Keywords:
+➤ Cumulative upkeep</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Cumulative upkeep {1} (At the beginning of your upkeep, put an age counter on this permanent, then sacrifice it unless you pay its upkeep cost for each age counter on it.)
+When this enchantment enters, look at the top ten cards of your library, then exile any number of them and put the rest back on top of your library in any order.
+When this enchantment leaves the battlefield, shuffle your library.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 1 generic
+➤ 1 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 4/4
 Reserved List
 Border: black
@@ -68,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">{0}: This creature gains flying. (This effect lasts indefinitely.)
@@ -77,39 +105,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 4 generic
 ➤ 2 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Reserved List
-Border: black
-Finish: normal
-Keywords:
-➤ Cumulative upkeep</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Cumulative upkeep {1} (At the beginning of your upkeep, put an age counter on this permanent, then sacrifice it unless you pay its upkeep cost for each age counter on it.)
-When this enchantment enters, look at the top ten cards of your library, then exile any number of them and put the rest back on top of your library in any order.
-When this enchantment leaves the battlefield, shuffle your library.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -150,6 +150,52 @@
     <comment ref="D4" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">At the beginning of your upkeep, you lose 1 life.
+At the beginning of your upkeep, you may return target creature card from your graveyard to the battlefield. That creature gains haste until end of turn. Exile it at the beginning of the next end step.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 3 black</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: white
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <t>Target spell or permanent becomes black. (Mana symbols on that permanent remain unchanged.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <t>➤ 1 black</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: */*
 Border: black
 Finish: normal
@@ -158,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Flying
@@ -168,57 +214,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 3 generic
 ➤ 2 black</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">At the beginning of your upkeep, you lose 1 life.
-At the beginning of your upkeep, you may return target creature card from your graveyard to the battlefield. That creature gains haste until end of turn. Exile it at the beginning of the next end step.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 3 black</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: white
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <t>Target spell or permanent becomes black. (Mana symbols on that permanent remain unchanged.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0">
-      <text>
-        <r>
-          <t>➤ 1 black</t>
         </r>
       </text>
     </comment>
@@ -257,8 +257,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/3
-Reserved List
+          <t xml:space="preserve">Reserved List
 Border: black
 Finish: normal</t>
         </r>
@@ -267,7 +266,8 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>Minotaur creatures get +1/+0.</t>
+          <t xml:space="preserve">As this enchantment enters, choose a creature type.
+Creatures of the chosen type don't untap during their controllers' untap steps.</t>
         </r>
       </text>
     </comment>
@@ -282,7 +282,8 @@
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Reserved List
+          <t xml:space="preserve">P/T: 1/3
+Reserved List
 Border: black
 Finish: normal</t>
         </r>
@@ -291,8 +292,7 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">As this enchantment enters, choose a creature type.
-Creatures of the chosen type don't untap during their controllers' untap steps.</t>
+          <t>Minotaur creatures get +1/+0.</t>
         </r>
       </text>
     </comment>
@@ -351,9 +351,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/2
-Reserved List
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -361,17 +359,22 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">At the beginning of each end step, if it's an opponent's turn, put a +1/+1 counter on this creature for each 1 damage dealt to you this turn.
-At the beginning of your end step, remove all +1/+1 counters from this creature.</t>
+          <t>Counter target spell. You gain 3 life.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 1 black
-➤ 1 red</t>
+          <t xml:space="preserve">➤ 1 white
+➤ 2 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <t>Group: decks</t>
         </r>
       </text>
     </comment>
@@ -398,17 +401,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
-      <text>
-        <r>
-          <t>Group: decks</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">P/T: 2/2
+Reserved List
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -416,15 +414,17 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>Counter target spell. You gain 3 life.</t>
+          <t xml:space="preserve">At the beginning of each end step, if it's an opponent's turn, put a +1/+1 counter on this creature for each 1 damage dealt to you this turn.
+At the beginning of your end step, remove all +1/+1 counters from this creature.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 white
-➤ 2 blue</t>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 black
+➤ 1 red</t>
         </r>
       </text>
     </comment>
@@ -463,29 +463,6 @@
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Reserved List
-Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>{2}: Put the top card of your graveyard on the bottom of your library.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t>➤ 2 generic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
           <t xml:space="preserve">P/T: 5/5
 Border: white
 Finish: normal
@@ -494,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Banding (Any creatures with banding, and up to one without, can attack in a band. Bands are blocked as a group. If any creatures with banding you control are blocking or being blocked by a creature, you divide that creature's combat damage, not its controller, among any of the creatures it's being blocked by or is blocking.)
@@ -502,10 +479,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <t>➤ 7 generic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Reserved List
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <t>{2}: Put the top card of your graveyard on the bottom of your library.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t>➤ 7 generic</t>
+          <t>➤ 2 generic</t>
         </r>
       </text>
     </comment>
@@ -657,6 +657,30 @@
     <t>Premodern (Rare) - Blue</t>
   </si>
   <si>
+    <t>Ancestral Knowledge</t>
+  </si>
+  <si>
+    <t>wth</t>
+  </si>
+  <si>
+    <t>Weatherlight</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>{1}{U}</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>7.74</t>
+  </si>
+  <si>
+    <t>Open Ancestral Knowledge</t>
+  </si>
+  <si>
     <t>Mist Dragon</t>
   </si>
   <si>
@@ -678,34 +702,10 @@
     <t>{4}{U}{U}</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>3.85</t>
   </si>
   <si>
     <t>Open Mist Dragon</t>
-  </si>
-  <si>
-    <t>Ancestral Knowledge</t>
-  </si>
-  <si>
-    <t>wth</t>
-  </si>
-  <si>
-    <t>Weatherlight</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>{1}{U}</t>
-  </si>
-  <si>
-    <t>7.74</t>
-  </si>
-  <si>
-    <t>Open Ancestral Knowledge</t>
   </si>
   <si>
     <t>Premodern (Rare) - Black</t>
@@ -736,30 +736,6 @@
   </si>
   <si>
     <t>Open Apprentice Necromancer</t>
-  </si>
-  <si>
-    <t>Entropic Specter</t>
-  </si>
-  <si>
-    <t>Creature — Specter Spirit</t>
-  </si>
-  <si>
-    <t>exo</t>
-  </si>
-  <si>
-    <t>Exodus</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>{3}{B}{B}</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>Open Entropic Specter</t>
   </si>
   <si>
     <t>Dawn of the Dead</t>
@@ -807,6 +783,30 @@
     <t>Open Deathlace</t>
   </si>
   <si>
+    <t>Entropic Specter</t>
+  </si>
+  <si>
+    <t>Creature — Specter Spirit</t>
+  </si>
+  <si>
+    <t>exo</t>
+  </si>
+  <si>
+    <t>Exodus</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>{3}{B}{B}</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>Open Entropic Specter</t>
+  </si>
+  <si>
     <t>Infernal Contract</t>
   </si>
   <si>
@@ -828,10 +828,7 @@
     <t>Premodern (Rare) - Red</t>
   </si>
   <si>
-    <t>Anaba Spirit Crafter</t>
-  </si>
-  <si>
-    <t>Creature — Minotaur Shaman</t>
+    <t>An-Zerrin Ruins</t>
   </si>
   <si>
     <t>hml</t>
@@ -840,7 +837,7 @@
     <t>Homelands</t>
   </si>
   <si>
-    <t>68</t>
+    <t>64</t>
   </si>
   <si>
     <t>{2}{R}{R}</t>
@@ -849,22 +846,25 @@
     <t>R</t>
   </si>
   <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>Open An-Zerrin Ruins</t>
+  </si>
+  <si>
+    <t>Anaba Spirit Crafter</t>
+  </si>
+  <si>
+    <t>Creature — Minotaur Shaman</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>0.93</t>
   </si>
   <si>
     <t>Open Anaba Spirit Crafter</t>
-  </si>
-  <si>
-    <t>An-Zerrin Ruins</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>Open An-Zerrin Ruins</t>
   </si>
   <si>
     <t>Premodern (Rare) - Green</t>
@@ -900,27 +900,6 @@
     <t>Premodern (Rare) - Multicolor</t>
   </si>
   <si>
-    <t>Discordant Spirit</t>
-  </si>
-  <si>
-    <t>Creature — Spirit</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>{2}{B}{R}</t>
-  </si>
-  <si>
-    <t>B, R</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>Open Discordant Spirit</t>
-  </si>
-  <si>
     <t>Absorb</t>
   </si>
   <si>
@@ -948,6 +927,27 @@
     <t>group-decks</t>
   </si>
   <si>
+    <t>Discordant Spirit</t>
+  </si>
+  <si>
+    <t>Creature — Spirit</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>{2}{B}{R}</t>
+  </si>
+  <si>
+    <t>B, R</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>Open Discordant Spirit</t>
+  </si>
+  <si>
     <t>Premodern (Rare) - Artifact (Colorless)</t>
   </si>
   <si>
@@ -972,24 +972,6 @@
     <t>Open Disrupting Scepter</t>
   </si>
   <si>
-    <t>Soldevi Digger</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Alliances</t>
-  </si>
-  <si>
-    <t>{2}</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>Open Soldevi Digger</t>
-  </si>
-  <si>
     <t>Mishra's War Machine</t>
   </si>
   <si>
@@ -1009,6 +991,24 @@
   </si>
   <si>
     <t>Open Mishra's War Machine</t>
+  </si>
+  <si>
+    <t>Soldevi Digger</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Alliances</t>
+  </si>
+  <si>
+    <t>{2}</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Open Soldevi Digger</t>
   </si>
   <si>
     <t>Premodern (Rare) - Land</t>
@@ -1119,7 +1119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1158,34 +1158,6 @@
       <right style="thin">
         <color rgb="FF999999"/>
       </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
       <top style="thin">
         <color rgb="FF4FA3B8"/>
       </top>
@@ -1198,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,10 +1195,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,28 +1207,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5032,60 +4986,60 @@
         <v>27</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="L3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="9">
-        <v>6</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>38</v>
@@ -5100,13 +5054,13 @@
         <v>41</v>
       </c>
       <c r="J4" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>42</v>
@@ -8427,7 +8381,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>46</v>
@@ -8471,22 +8425,22 @@
         <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="J4" s="13">
         <v>5</v>
@@ -8498,141 +8452,141 @@
         <v>51</v>
       </c>
       <c r="M4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="15">
+      <c r="E5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="K5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="D6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="13">
         <v>5</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="17">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="M6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="D7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="19">
-        <v>3</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -11951,42 +11905,42 @@
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="J3" s="9">
         <v>4</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="11">
         <v>2</v>
@@ -11995,31 +11949,31 @@
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>94</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="11">
         <v>4</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>95</v>
@@ -15339,7 +15293,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>99</v>
@@ -18683,125 +18637,125 @@
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="9">
+      <c r="I4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="15">
+        <v>3</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="7">
         <v>4</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="17">
-        <v>3</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="K5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="L5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="N5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="21">
-        <v>3</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -22155,31 +22109,31 @@
         <v>132</v>
       </c>
       <c r="B4" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J4" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>129</v>
@@ -22188,53 +22142,53 @@
         <v>129</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="19">
-        <v>7</v>
-      </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -25557,10 +25511,10 @@
         <v>147</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>148</v>
@@ -25575,7 +25529,7 @@
         <v>129</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>149</v>
